--- a/src/test/resources/Excel/SampleMetadata_Mobile.xlsx
+++ b/src/test/resources/Excel/SampleMetadata_Mobile.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26137" uniqueCount="2258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26293" uniqueCount="2280">
   <si>
     <t>Result ID</t>
   </si>
@@ -6808,6 +6808,72 @@
   </si>
   <si>
     <t>A1116712</t>
+  </si>
+  <si>
+    <t>A1143901</t>
+  </si>
+  <si>
+    <t>1042006</t>
+  </si>
+  <si>
+    <t>20221230-Cocci-24257</t>
+  </si>
+  <si>
+    <t>A00471</t>
+  </si>
+  <si>
+    <t>TestComplexSite_20221230</t>
+  </si>
+  <si>
+    <t>TestFarm1_20221230</t>
+  </si>
+  <si>
+    <t>12/30/2022</t>
+  </si>
+  <si>
+    <t>3:42 PM</t>
+  </si>
+  <si>
+    <t>CartridgeCocci4257</t>
+  </si>
+  <si>
+    <t>JAlam</t>
+  </si>
+  <si>
+    <t>12/20/2022</t>
+  </si>
+  <si>
+    <t>A1143902</t>
+  </si>
+  <si>
+    <t>A1143903</t>
+  </si>
+  <si>
+    <t>A1143904</t>
+  </si>
+  <si>
+    <t>A1143905</t>
+  </si>
+  <si>
+    <t>A1143906</t>
+  </si>
+  <si>
+    <t>A1143907</t>
+  </si>
+  <si>
+    <t>A1143908</t>
+  </si>
+  <si>
+    <t>A1143909</t>
+  </si>
+  <si>
+    <t>A1143910</t>
+  </si>
+  <si>
+    <t>A1143911</t>
+  </si>
+  <si>
+    <t>A1143912</t>
   </si>
 </sst>
 </file>
@@ -7265,10 +7331,10 @@
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2243</v>
+        <v>2258</v>
       </c>
       <c r="B2" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -7277,7 +7343,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -7292,7 +7358,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -7301,10 +7367,10 @@
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N2" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -7316,25 +7382,25 @@
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S2" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T2" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
       </c>
       <c r="V2" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y2" t="s">
         <v>25</v>
@@ -7342,10 +7408,10 @@
     </row>
     <row r="3" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2247</v>
+        <v>2269</v>
       </c>
       <c r="B3" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -7354,7 +7420,7 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -7369,7 +7435,7 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -7378,10 +7444,10 @@
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N3" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -7393,25 +7459,25 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S3" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T3" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U3" t="s">
         <v>26</v>
       </c>
       <c r="V3" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W3" t="s">
         <v>25</v>
       </c>
       <c r="X3" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y3" t="s">
         <v>25</v>
@@ -7419,10 +7485,10 @@
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>2248</v>
+        <v>2270</v>
       </c>
       <c r="B4" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -7431,7 +7497,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -7446,7 +7512,7 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K4" t="s">
         <v>25</v>
@@ -7455,10 +7521,10 @@
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N4" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -7470,25 +7536,25 @@
         <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S4" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T4" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U4" t="s">
         <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y4" t="s">
         <v>25</v>
@@ -7496,10 +7562,10 @@
     </row>
     <row r="5" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>2249</v>
+        <v>2271</v>
       </c>
       <c r="B5" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -7508,7 +7574,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -7523,7 +7589,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
@@ -7532,10 +7598,10 @@
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N5" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O5" t="s">
         <v>25</v>
@@ -7547,25 +7613,25 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S5" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T5" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U5" t="s">
         <v>26</v>
       </c>
       <c r="V5" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W5" t="s">
         <v>25</v>
       </c>
       <c r="X5" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y5" t="s">
         <v>25</v>
@@ -7573,10 +7639,10 @@
     </row>
     <row r="6" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>2250</v>
+        <v>2272</v>
       </c>
       <c r="B6" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -7585,7 +7651,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -7600,7 +7666,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K6" t="s">
         <v>25</v>
@@ -7609,10 +7675,10 @@
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N6" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O6" t="s">
         <v>25</v>
@@ -7624,25 +7690,25 @@
         <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S6" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T6" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U6" t="s">
         <v>26</v>
       </c>
       <c r="V6" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W6" t="s">
         <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y6" t="s">
         <v>25</v>
@@ -7650,10 +7716,10 @@
     </row>
     <row r="7" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>2251</v>
+        <v>2273</v>
       </c>
       <c r="B7" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -7662,7 +7728,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -7677,7 +7743,7 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K7" t="s">
         <v>25</v>
@@ -7686,10 +7752,10 @@
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N7" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O7" t="s">
         <v>25</v>
@@ -7701,25 +7767,25 @@
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S7" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T7" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U7" t="s">
         <v>26</v>
       </c>
       <c r="V7" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W7" t="s">
         <v>25</v>
       </c>
       <c r="X7" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y7" t="s">
         <v>25</v>
@@ -7727,10 +7793,10 @@
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>2252</v>
+        <v>2274</v>
       </c>
       <c r="B8" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
@@ -7739,7 +7805,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -7754,7 +7820,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K8" t="s">
         <v>25</v>
@@ -7763,10 +7829,10 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N8" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O8" t="s">
         <v>25</v>
@@ -7778,25 +7844,25 @@
         <v>34</v>
       </c>
       <c r="R8" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S8" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T8" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
       </c>
       <c r="V8" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W8" t="s">
         <v>25</v>
       </c>
       <c r="X8" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y8" t="s">
         <v>25</v>
@@ -7804,10 +7870,10 @@
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>2253</v>
+        <v>2275</v>
       </c>
       <c r="B9" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -7816,7 +7882,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -7831,7 +7897,7 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K9" t="s">
         <v>25</v>
@@ -7840,10 +7906,10 @@
         <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N9" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -7855,25 +7921,25 @@
         <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S9" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T9" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U9" t="s">
         <v>26</v>
       </c>
       <c r="V9" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W9" t="s">
         <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y9" t="s">
         <v>25</v>
@@ -7881,10 +7947,10 @@
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>2254</v>
+        <v>2276</v>
       </c>
       <c r="B10" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -7893,7 +7959,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -7908,7 +7974,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
@@ -7917,10 +7983,10 @@
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N10" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
@@ -7932,25 +7998,25 @@
         <v>36</v>
       </c>
       <c r="R10" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S10" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T10" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U10" t="s">
         <v>26</v>
       </c>
       <c r="V10" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W10" t="s">
         <v>25</v>
       </c>
       <c r="X10" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y10" t="s">
         <v>25</v>
@@ -7958,10 +8024,10 @@
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>2255</v>
+        <v>2277</v>
       </c>
       <c r="B11" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -7970,7 +8036,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -7985,7 +8051,7 @@
         <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K11" t="s">
         <v>25</v>
@@ -7994,10 +8060,10 @@
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N11" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O11" t="s">
         <v>25</v>
@@ -8009,25 +8075,25 @@
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S11" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T11" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U11" t="s">
         <v>26</v>
       </c>
       <c r="V11" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W11" t="s">
         <v>25</v>
       </c>
       <c r="X11" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y11" t="s">
         <v>25</v>
@@ -8035,10 +8101,10 @@
     </row>
     <row r="12" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>2256</v>
+        <v>2278</v>
       </c>
       <c r="B12" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -8047,7 +8113,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -8062,7 +8128,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K12" t="s">
         <v>25</v>
@@ -8071,10 +8137,10 @@
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N12" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O12" t="s">
         <v>25</v>
@@ -8086,25 +8152,25 @@
         <v>38</v>
       </c>
       <c r="R12" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S12" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T12" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U12" t="s">
         <v>26</v>
       </c>
       <c r="V12" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W12" t="s">
         <v>25</v>
       </c>
       <c r="X12" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y12" t="s">
         <v>25</v>
@@ -8112,10 +8178,10 @@
     </row>
     <row r="13" spans="1:25" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>2257</v>
+        <v>2279</v>
       </c>
       <c r="B13" t="s">
-        <v>2244</v>
+        <v>2259</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -8124,7 +8190,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>2245</v>
+        <v>2260</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -8139,7 +8205,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>2246</v>
+        <v>2261</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -8148,10 +8214,10 @@
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>2077</v>
+        <v>2262</v>
       </c>
       <c r="N13" t="s">
-        <v>2078</v>
+        <v>2263</v>
       </c>
       <c r="O13" t="s">
         <v>25</v>
@@ -8163,25 +8229,25 @@
         <v>39</v>
       </c>
       <c r="R13" t="s">
-        <v>2079</v>
+        <v>2264</v>
       </c>
       <c r="S13" t="s">
-        <v>2123</v>
+        <v>2265</v>
       </c>
       <c r="T13" t="s">
-        <v>2124</v>
+        <v>2266</v>
       </c>
       <c r="U13" t="s">
         <v>26</v>
       </c>
       <c r="V13" t="s">
-        <v>1709</v>
+        <v>2267</v>
       </c>
       <c r="W13" t="s">
         <v>25</v>
       </c>
       <c r="X13" t="s">
-        <v>1936</v>
+        <v>2268</v>
       </c>
       <c r="Y13" t="s">
         <v>25</v>
